--- a/biology/Biochimie/Sélénométhionine/Sélénométhionine.xlsx
+++ b/biology/Biochimie/Sélénométhionine/Sélénométhionine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9nom%C3%A9thionine</t>
+          <t>Sélénométhionine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La sélénométhionine est un composé chimique, analogue sélénié de la méthionine, un acide aminé soufré, à la place de laquelle[pas clair] elle peut être incorporée de façon aléatoire dans les protéines qu'on nomme alors sélénoprotéines.  Elle y est alors parfois représentée par les abréviations Se-Met ou Sem. Le soufre et le sélénium sont deux éléments chalcogènes assez semblables qui rendent la substitution de méthionine par la sélénométhionine a priori sans effet biologique — jusqu'à un certain point : le sélénium, bénéfique à très faibles doses, présente en effet une toxicité certaine au-delà de 400 μg par jour, la dose quotidienne recommandée étant huit fois inférieure à cette limite[4],[5] et donc très facilement dépassée.
-La sélénométhionine pourrait constituer une source de sélénium plus facilement assimilable par l'organisme que l'ion sélénite SeO32−, absorbé par exemple sous forme de sélénite de sodium Na2SeO3 dans divers compléments alimentaires, en raison précisément de sa faculté à être incorporée aux protéines, sa demi-vie dans l'organisme étant plus du double (252 jours contre 102 jours[4]) de celle de SeO32−.
-La dégradation in vivo de la sélénométhionine génère du séléniure d'hydrogène H2Se[4].
+La sélénométhionine est un composé chimique, analogue sélénié de la méthionine, un acide aminé soufré, à la place de laquelle[pas clair] elle peut être incorporée de façon aléatoire dans les protéines qu'on nomme alors sélénoprotéines.  Elle y est alors parfois représentée par les abréviations Se-Met ou Sem. Le soufre et le sélénium sont deux éléments chalcogènes assez semblables qui rendent la substitution de méthionine par la sélénométhionine a priori sans effet biologique — jusqu'à un certain point : le sélénium, bénéfique à très faibles doses, présente en effet une toxicité certaine au-delà de 400 μg par jour, la dose quotidienne recommandée étant huit fois inférieure à cette limite, et donc très facilement dépassée.
+La sélénométhionine pourrait constituer une source de sélénium plus facilement assimilable par l'organisme que l'ion sélénite SeO32−, absorbé par exemple sous forme de sélénite de sodium Na2SeO3 dans divers compléments alimentaires, en raison précisément de sa faculté à être incorporée aux protéines, sa demi-vie dans l'organisme étant plus du double (252 jours contre 102 jours) de celle de SeO32−.
+La dégradation in vivo de la sélénométhionine génère du séléniure d'hydrogène H2Se.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9l%C3%A9nom%C3%A9thionine</t>
+          <t>Sélénométhionine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La sélénométhionine possède un carbone chiral et donc deux énantiomères:
 (2R)-sélénométhionine ou D-sélénométhionine, numéro CAS 13091-98-0
